--- a/biology/Histoire de la zoologie et de la botanique/Doug_Peacock/Doug_Peacock.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Doug_Peacock/Doug_Peacock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doug Peacock, né en 1942 dans le Michigan, est un naturaliste et écrivain américain.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Récits
-Mes années grizzly, Gallmeister, 2012 ((en) The Grizzly Years: In Search of the American Wilderness, Henry Holt &amp; Co, 1990), trad. Josiane Deschamps, 384 p.  (ISBN 978-2351786185)
+          <t>Récits</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mes années grizzly, Gallmeister, 2012 ((en) The Grizzly Years: In Search of the American Wilderness, Henry Holt &amp; Co, 1990), trad. Josiane Deschamps, 384 p.  (ISBN 978-2351786185)
 Une guerre dans la tête, Gallmeister, 2008 ((en) Walking It Off: A Veteran's Chronicle of War And Wilderness, Ewu Press, 2005), trad. Camille Fort-Cantoni, 256 p.  (ISBN 978-2351780152)</t>
         </is>
       </c>
